--- a/4sem/лабы/предмет чм/lab6.xlsx
+++ b/4sem/лабы/предмет чм/lab6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\леха\Desktop\2 курс\4sem\лабы\предмет чм\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607465C2-1048-47FC-8249-88BDAC60EAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE076DD-AD00-4065-80EA-ACF8196EB3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-369" yWindow="3643" windowWidth="15120" windowHeight="12008" xr2:uid="{E35EA39F-59AD-4BD1-A3D2-879DD8AA8CF1}"/>
+    <workbookView xWindow="2391" yWindow="1003" windowWidth="18506" windowHeight="12008" xr2:uid="{E35EA39F-59AD-4BD1-A3D2-879DD8AA8CF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F54B66-9C6B-453E-AD62-F87223D1E84A}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -658,7 +658,7 @@
         <v>-0.40890213330163561</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J7:J9" si="6">ABS(D8-I8)</f>
+        <f t="shared" ref="J8:J9" si="6">ABS(D8-I8)</f>
         <v>4.4089021333016358</v>
       </c>
     </row>
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E15:E17" si="12">(C17-C16)/$B$1</f>
+        <f t="shared" ref="E16:E17" si="12">(C17-C16)/$B$1</f>
         <v>-0.95892427466313845</v>
       </c>
       <c r="F16">
@@ -918,7 +918,7 @@
         <v>-1.6356085332065424</v>
       </c>
       <c r="J16">
-        <f t="shared" ref="J15:J17" si="13">ABS(D16-I16)</f>
+        <f t="shared" ref="J16:J17" si="13">ABS(D16-I16)</f>
         <v>5.6356085332065424</v>
       </c>
     </row>
